--- a/Level_1/Upload_system/uploaddata.xlsx
+++ b/Level_1/Upload_system/uploaddata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Documents_Son\CODING\Software_Testing\Upload_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Documents_Son\CODING\Software_Testing\Level_1\Upload_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110A420A-A025-4BA5-91C1-4FCEEDCFC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464B0C4-0BA0-448D-AE68-94356652BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A337B26-3754-47A7-86C6-D3A60D128A27}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Testcase</t>
   </si>
@@ -42,9 +42,6 @@
     <t>TC-03-06</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -67,6 +64,30 @@
   </si>
   <si>
     <t>C:\\Software-Testing\\vipboard.mp4</t>
+  </si>
+  <si>
+    <t>TC-03-03</t>
+  </si>
+  <si>
+    <t>TC-03-05</t>
+  </si>
+  <si>
+    <t>TC-03-07</t>
+  </si>
+  <si>
+    <t>TC-03-08</t>
+  </si>
+  <si>
+    <t>You are allowed to attach a maximum of 1 file(s) to this item</t>
+  </si>
+  <si>
+    <t>File1</t>
+  </si>
+  <si>
+    <t>File2</t>
+  </si>
+  <si>
+    <t>C:\\Software-Testing\\Project #2 description.pdf</t>
   </si>
 </sst>
 </file>
@@ -431,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADAFFE8-6510-48B5-838D-FC58110C1E8F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,60 +465,125 @@
     <col min="3" max="3" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
